--- a/data/prediction_plot.xlsx
+++ b/data/prediction_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2023\0324asthmaregistry\asthmaapp0417\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AA7942-7652-43D7-9499-60C45B14F7E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835CE0DC-2A83-47E4-9A31-2AA29432D9BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12855" xr2:uid="{52C112C4-42DE-44D2-BE2D-4639D268EF8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>周</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>9/24</t>
+  </si>
+  <si>
+    <t>计划8000</t>
+  </si>
+  <si>
+    <t>9/30</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F83D2-8A51-4FA3-AB89-6DE47746C81B}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,7 +567,7 @@
     <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,103 +580,106 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>41</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>60</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>99</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>154</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <v>244</v>
+      <c r="B10">
+        <v>245</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
-        <v>395</v>
+      <c r="B11">
+        <v>396</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
-        <v>552</v>
+      <c r="B12">
+        <v>553</v>
       </c>
       <c r="C12" s="5">
         <v>465.5</v>
@@ -679,12 +688,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
-        <v>706</v>
+      <c r="B13">
+        <v>708</v>
       </c>
       <c r="C13" s="5">
         <v>590</v>
@@ -693,12 +702,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
-        <v>884</v>
+      <c r="B14">
+        <v>887</v>
       </c>
       <c r="C14" s="5">
         <v>804.14285714285711</v>
@@ -707,12 +716,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
-        <v>1084</v>
+      <c r="B15">
+        <v>1088</v>
       </c>
       <c r="C15" s="5">
         <v>1054.5714285714287</v>
@@ -721,12 +730,12 @@
         <v>935</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
-        <v>1295</v>
+      <c r="B16">
+        <v>1300</v>
       </c>
       <c r="C16" s="5">
         <v>1347.7142857142858</v>
@@ -735,12 +744,12 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
-        <v>1448</v>
+      <c r="B17">
+        <v>1454</v>
       </c>
       <c r="C17" s="5">
         <v>1676.4285714285713</v>
@@ -749,12 +758,12 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
-        <v>1658</v>
+      <c r="B18">
+        <v>1664</v>
       </c>
       <c r="C18" s="5">
         <v>2039</v>
@@ -763,12 +772,12 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
-        <v>1862</v>
+      <c r="B19">
+        <v>1869</v>
       </c>
       <c r="C19" s="5">
         <v>2435.1428571428573</v>
@@ -777,12 +786,12 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
-        <v>2037</v>
+      <c r="B20">
+        <v>2056</v>
       </c>
       <c r="C20" s="5">
         <v>2867</v>
@@ -791,12 +800,12 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
-        <v>2178</v>
+      <c r="B21">
+        <v>2265</v>
       </c>
       <c r="C21" s="5">
         <v>3449</v>
@@ -805,19 +814,24 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22">
+        <v>2409</v>
+      </c>
       <c r="C22" s="5">
         <v>3835.2857142857142</v>
       </c>
       <c r="D22" s="6">
         <v>3985</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -828,8 +842,11 @@
       <c r="D23" s="6">
         <v>4530</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -840,8 +857,11 @@
       <c r="D24" s="6">
         <v>5075</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -852,8 +872,11 @@
       <c r="D25" s="6">
         <v>5620</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -864,8 +887,11 @@
       <c r="D26" s="6">
         <v>6165</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -876,8 +902,11 @@
       <c r="D27" s="6">
         <v>6710</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -888,8 +917,11 @@
       <c r="D28" s="6">
         <v>7255</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -900,8 +932,11 @@
       <c r="D29" s="6">
         <v>7800</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -912,8 +947,11 @@
       <c r="D30" s="6">
         <v>8345</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -924,8 +962,11 @@
       <c r="D31" s="6">
         <v>8890</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -936,8 +977,11 @@
       <c r="D32" s="6">
         <v>9435</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -948,8 +992,11 @@
       <c r="D33" s="6">
         <v>9980</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -960,8 +1007,11 @@
       <c r="D34" s="6">
         <v>10525</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -972,8 +1022,11 @@
       <c r="D35" s="6">
         <v>11070</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -984,8 +1037,11 @@
       <c r="D36" s="6">
         <v>11615</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -995,6 +1051,17 @@
       </c>
       <c r="D37" s="8">
         <v>12160</v>
+      </c>
+      <c r="E37">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>8059</v>
       </c>
     </row>
   </sheetData>
